--- a/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>5,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>7,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-78,37%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,0</t>
+          <t>0,0; 30,38</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,45</t>
+          <t>0,0; 35,35</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -662,12 +662,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-82,63; 486,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 460,43</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-88,2%</t>
+          <t>-78,37%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-47,78%</t>
+          <t>26,65%</t>
         </is>
       </c>
     </row>
@@ -802,39 +802,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -1,8</t>
+          <t>-5,48; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,43</t>
+          <t>-2,95; 3,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,67</t>
+          <t>-2,97; 4,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -16,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,63; 486,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,69; 460,43</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-59,91%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,38</t>
+          <t>-4,64; 1,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,62; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,35</t>
+          <t>-1,61; 2,84</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-59,91%</t>
+          <t>-88,2%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>-47,78%</t>
         </is>
       </c>
     </row>
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,81</t>
+          <t>-10,47; -1,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,0</t>
+          <t>-2,11; 4,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,84</t>
+          <t>-7,42; 1,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -16,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">

--- a/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 30,38</t>
+          <t>0,0; 25,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,35</t>
+          <t>0,0; 39,46</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 8,41</t>
+          <t>-2,15; 7,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 3,34</t>
+          <t>-7,49; 3,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,13</t>
+          <t>-2,93; 7,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 0,0</t>
+          <t>-6,08; -0,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 3,31</t>
+          <t>-3,47; 3,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 4,45</t>
+          <t>-3,08; 4,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,12 +822,12 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-82,63; 486,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,69; 460,43</t>
+          <t>-81,35; 513,98</t>
         </is>
       </c>
     </row>
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,64; 1,81</t>
+          <t>-5,0; 1,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,0</t>
+          <t>-4,2; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,84</t>
+          <t>-1,61; 2,74</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,47; -1,8</t>
+          <t>-9,9; -2,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,43</t>
+          <t>-2,11; 4,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,42; 1,67</t>
+          <t>-6,71; 1,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -16,19</t>
+          <t>-100,0; 15,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 132,94</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,39 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 0,02</t>
+          <t>-3,35; 0,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,81; 1,45</t>
+          <t>-1,95; 1,4</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 2,12</t>
+          <t>-1,79; 1,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,86; 9,42</t>
+          <t>-83,4; 20,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,87; 181,96</t>
+          <t>-70,82; 146,77</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,11; 132,93</t>
+          <t>-54,8; 131,47</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
@@ -562,7 +562,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
     </row>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,82</t>
+          <t>0,0; 26,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -652,7 +652,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 39,46</t>
+          <t>0,0; 36,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,38</t>
+          <t>-2,13; 7,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,49; 3,38</t>
+          <t>-7,76; 3,32</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 7,22</t>
+          <t>-2,91; 7,21</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,08; -0,08</t>
+          <t>-4,9; -0,08</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,47; 3,49</t>
+          <t>-3,14; 3,27</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 4,35</t>
+          <t>-2,54; 4,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,19 +822,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-86,5; 496,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,35; 513,98</t>
+          <t>-82,14; 609,66</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -882,17 +882,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 1,3</t>
+          <t>-4,57; 1,84</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 0,0</t>
+          <t>-4,46; 0,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,74</t>
+          <t>-1,61; 3,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -962,22 +962,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,9; -2,03</t>
+          <t>-10,22; -1,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 4,36</t>
+          <t>-2,16; 4,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,71; 1,87</t>
+          <t>-6,76; 1,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 15,91</t>
+          <t>-100,0; 23,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -987,7 +987,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 132,94</t>
+          <t>-100,0; 146,26</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 0,21</t>
+          <t>-3,49; -0,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,95; 1,4</t>
+          <t>-1,99; 1,53</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 1,91</t>
+          <t>-1,93; 2,24</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-83,4; 20,37</t>
+          <t>-83,93; 12,2</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-70,82; 146,77</t>
+          <t>-74,93; 160,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,8; 131,47</t>
+          <t>-56,85; 149,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/IP19C09-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -594,7 +594,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>2,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,87</t>
+          <t>2,8</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>158,93%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>242,91%</t>
         </is>
       </c>
     </row>
@@ -642,17 +642,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 26,08</t>
+          <t>-1,27; 7,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,63; 2,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 36,11</t>
+          <t>-1,12; 9,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -674,7 +674,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>-1,91</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1,43</t>
+          <t>0,65</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>94,2%</t>
+          <t>-78,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-29,74%</t>
+          <t>-0,46%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>98,12%</t>
+          <t>26,65%</t>
         </is>
       </c>
     </row>
@@ -722,17 +722,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,13; 7,61</t>
+          <t>-5,48; 0,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-7,76; 3,32</t>
+          <t>-2,95; 3,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,91; 7,21</t>
+          <t>-2,97; 4,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -742,19 +742,19 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,63; 486,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-82,69; 460,43</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,91</t>
+          <t>-1,36</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-78,37%</t>
+          <t>-59,91%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,46%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,65%</t>
+          <t>11,89%</t>
         </is>
       </c>
     </row>
@@ -802,17 +802,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,9; -0,08</t>
+          <t>-4,64; 1,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 3,27</t>
+          <t>-4,62; 0,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,28</t>
+          <t>-1,61; 2,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -822,19 +822,19 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-86,5; 496,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,14; 609,66</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-1,36</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>-2,12</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-59,91%</t>
+          <t>-88,2%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>32,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,89%</t>
+          <t>-47,78%</t>
         </is>
       </c>
     </row>
@@ -882,22 +882,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 1,84</t>
+          <t>-10,47; -1,8</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,46; 0,0</t>
+          <t>-2,11; 4,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 3,24</t>
+          <t>-7,42; 1,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; -16,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -914,7 +914,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-5,23</t>
+          <t>-1,67</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,12</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-88,2%</t>
+          <t>-54,52%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,0%</t>
+          <t>-10,63%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-47,78%</t>
+          <t>5,31%</t>
         </is>
       </c>
     </row>
@@ -962,124 +962,44 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-10,22; -1,63</t>
+          <t>-3,62; 0,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 4,63</t>
+          <t>-1,81; 1,45</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,76; 1,93</t>
+          <t>-1,86; 2,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 23,55</t>
+          <t>-83,86; 9,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-69,87; 181,96</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 146,26</t>
+          <t>-58,11; 132,93</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-1,67</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,19</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,13</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-54,52%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-10,63%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>5,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-3,49; -0,0</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-1,99; 1,53</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 2,24</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-83,93; 12,2</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-74,93; 160,95</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-56,85; 149,87</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
@@ -1088,7 +1008,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
